--- a/3)_PlanilhaExcel_de_Controle/Controle.xlsx
+++ b/3)_PlanilhaExcel_de_Controle/Controle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pedro\Programacao\.Projetos\Banco_de_dados\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pedro\Programacao\.Projetos\Banco_de_dados\Projeto_BancoDeDados\3)_PlanilhaExcel_de_Controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B99DC7-B558-4590-8D47-E4F48F054AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD1F9F-5BE0-4F56-BABF-3717C91A7B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">… e das stored procedures  e funções </t>
   </si>
   <si>
-    <t>MEDICO_DENTISTA,  PACIENTE,  TECNICO_SAUDE_BUCAL, SECRETARIA</t>
-  </si>
-  <si>
     <t>usando um cursor</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>after_delete_item_solicitado.sql                                                                                             after_insert_item_solicitado.sql</t>
+  </si>
+  <si>
+    <t>MEDICO_DENTISTA,  TECNICO_SAUDE_BUCAL, SECRETARIA, FILIAL</t>
   </si>
 </sst>
 </file>
@@ -490,9 +490,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -857,7 +857,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -868,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -904,19 +904,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -931,35 +931,35 @@
     <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -974,35 +974,35 @@
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="32" t="s">
-        <v>51</v>
+      <c r="D15" s="31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1019,10 +1019,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1032,22 +1032,22 @@
         <v>14</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1062,23 +1062,23 @@
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="22"/>
     </row>
